--- a/Current Ventilators in the US.xlsx
+++ b/Current Ventilators in the US.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjxu/Desktop/covid19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjxu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00607D8-9FD2-9946-8710-819EF91F8448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A89AD-9DAE-FF44-AA3E-A646030F0944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8720" yWindow="4220" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="200401 Ventilators by State" sheetId="2" r:id="rId1"/>
+    <sheet name="Ventilators by State" sheetId="2" r:id="rId1"/>
     <sheet name="Current Ventilators in the U.S." sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'200401 Ventilators by State'!$A$1:$I$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current Ventilators in the U.S.'!$A$1:$I$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ventilators by State'!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -71,14 +71,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="142">
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>Available capacity for COVID-19</t>
-  </si>
-  <si>
     <t>Enroute Capacity</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
   </si>
   <si>
     <t>Delaware</t>
-  </si>
-  <si>
-    <t>Unclear</t>
   </si>
   <si>
     <t>From California</t>
@@ -1383,13 +1377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990A875D-A055-428D-A5C4-2B491B84E218}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1401,162 +1395,169 @@
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>1344</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1344</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>43920</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>43920</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
       </c>
       <c r="B4">
         <v>1500</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1500</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>43927</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>500</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
         <v>43917</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>11036</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>10536</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>43927</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
       </c>
       <c r="B7">
         <v>600</v>
@@ -1568,18 +1569,18 @@
         <v>1350</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>43709</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -1591,24 +1592,27 @@
         <v>1150</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>43924</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
       </c>
       <c r="B9">
         <v>400</v>
@@ -1617,24 +1621,27 @@
         <v>170</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="1">
         <v>43929</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>34</v>
       </c>
       <c r="B10">
         <v>4000</v>
@@ -1643,18 +1650,18 @@
         <v>4000</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1">
         <v>43927</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>1006</v>
@@ -1663,18 +1670,18 @@
         <v>1006</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1">
         <v>43922</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>534</v>
@@ -1683,18 +1690,18 @@
         <v>534</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1">
         <v>43920</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>404</v>
@@ -1703,18 +1710,18 @@
         <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1">
         <v>43914</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>1595</v>
@@ -1726,21 +1733,24 @@
         <v>1745</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1">
         <v>43914</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>1927</v>
@@ -1749,18 +1759,18 @@
         <v>1927</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>43920</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>280</v>
@@ -1769,35 +1779,35 @@
         <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1">
         <v>43915</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>168</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" s="1">
         <v>43894</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>1300</v>
@@ -1806,18 +1816,18 @@
         <v>1300</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1">
         <v>43925</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>1000</v>
@@ -1829,24 +1839,27 @@
         <v>1300</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1">
         <v>43919</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>248</v>
@@ -1855,18 +1868,18 @@
         <v>248</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1">
         <v>43915</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>1040</v>
@@ -1875,24 +1888,27 @@
         <v>1040</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1">
         <v>43918</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>59</v>
-      </c>
-      <c r="I21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>61</v>
       </c>
       <c r="B22">
         <v>1400</v>
@@ -1901,21 +1917,21 @@
         <v>1400</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" s="1">
         <v>43926</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1700</v>
@@ -1927,21 +1943,24 @@
         <v>2100</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1">
         <v>43920</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>1384</v>
@@ -1950,41 +1969,44 @@
         <v>1384</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1">
         <v>43925</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>400</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F25" s="1">
         <v>43922</v>
       </c>
       <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>70</v>
-      </c>
-      <c r="I25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>72</v>
       </c>
       <c r="B26">
         <v>1832</v>
@@ -1993,41 +2015,41 @@
         <v>1832</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1">
         <v>43930</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>327</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F27" s="1">
         <v>44105</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>75</v>
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
       </c>
       <c r="J27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28">
         <v>600</v>
@@ -2036,18 +2058,18 @@
         <v>600</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F28" s="1">
         <v>43919</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>838</v>
@@ -2056,18 +2078,18 @@
         <v>838</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F29" s="1">
         <v>43927</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>1000</v>
@@ -2076,18 +2098,18 @@
         <v>1000</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F30" s="1">
         <v>43928</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <v>1227</v>
@@ -2099,21 +2121,24 @@
         <v>1527</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1">
         <v>43924</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32">
         <v>630</v>
@@ -2122,18 +2147,18 @@
         <v>630</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F32" s="1">
         <v>43922</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33">
         <v>2200</v>
@@ -2145,41 +2170,47 @@
         <v>3300</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F33" s="1">
         <v>43923</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="K33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <v>2127</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F34" s="1">
         <v>43922</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
       </c>
       <c r="J34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35">
         <v>408</v>
@@ -2188,18 +2219,18 @@
         <v>408</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1">
         <v>43919</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B36">
         <v>2729</v>
@@ -2208,18 +2239,18 @@
         <v>2729</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" s="1">
         <v>43910</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37">
         <v>800</v>
@@ -2228,18 +2259,18 @@
         <v>800</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F37" s="1">
         <v>43917</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38">
         <v>800</v>
@@ -2251,35 +2282,35 @@
         <v>660</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F38" s="1">
         <v>43924</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39">
         <v>2000</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F39" s="1">
         <v>43914</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>388</v>
@@ -2291,18 +2322,18 @@
         <v>310.39999999999998</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F40" s="1">
         <v>43927</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B41">
         <v>1265</v>
@@ -2311,21 +2342,24 @@
         <v>1265</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F41" s="1">
         <v>43917</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="K41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42">
         <v>525</v>
@@ -2334,18 +2368,18 @@
         <v>525</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F42" s="1">
         <v>43927</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B43">
         <v>950</v>
@@ -2354,18 +2388,18 @@
         <v>950</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F43" s="1">
         <v>43924</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44">
         <v>8741</v>
@@ -2374,18 +2408,18 @@
         <v>8741</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F44" s="1">
         <v>43924</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45">
         <v>720</v>
@@ -2394,21 +2428,24 @@
         <v>720</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F45" s="1">
         <v>43925</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="K45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B46">
         <v>208</v>
@@ -2420,18 +2457,18 @@
         <v>660</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F46" s="1">
         <v>43927</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B47">
         <v>2533</v>
@@ -2443,18 +2480,18 @@
         <v>1849.09</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F47" s="1">
         <v>43928</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B48">
         <v>1200</v>
@@ -2466,90 +2503,93 @@
         <v>1950</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F48" s="1">
         <v>43926</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="K48" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49">
         <v>700</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F49" s="1">
         <v>43923</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50">
         <v>620</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F50" s="1">
         <v>43913</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51">
         <v>180</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F51" s="1">
         <v>43904</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B52">
         <v>440</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F52" s="1">
         <v>43972</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2561,11 +2601,10 @@
     <hyperlink ref="E51" r:id="rId5" xr:uid="{BC781187-F2E7-6C40-B7C0-A25212B1AB76}"/>
     <hyperlink ref="E52" r:id="rId6" xr:uid="{4D9385F5-4E2E-EB49-8A05-2B0B36A15E21}"/>
     <hyperlink ref="E34" r:id="rId7" xr:uid="{239D3D4D-165B-2B4A-85B9-05D8E5B63C20}"/>
-    <hyperlink ref="I27" r:id="rId8" xr:uid="{0A9B6DCC-82D9-E641-B60C-0AC77B633A80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId9"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2573,16 +2612,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="9" width="9" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2590,151 +2634,151 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1344</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1344</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>43920</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>43920</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1500</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1500</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>43927</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>500</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
         <v>43917</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>11036</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>10536</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>43927</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>600</v>
@@ -2746,18 +2790,18 @@
         <v>1350</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>43709</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -2769,41 +2813,41 @@
         <v>1150</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>43924</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
         <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>400</v>
       </c>
       <c r="C9">
         <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>4000</v>
@@ -2812,18 +2856,18 @@
         <v>4000</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1">
         <v>43927</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>1006</v>
@@ -2832,18 +2876,18 @@
         <v>1006</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1">
         <v>43922</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>534</v>
@@ -2852,18 +2896,18 @@
         <v>534</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1">
         <v>43920</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>404</v>
@@ -2872,18 +2916,18 @@
         <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1">
         <v>43914</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>1595</v>
@@ -2895,21 +2939,21 @@
         <v>1745</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1">
         <v>43914</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>1927</v>
@@ -2918,18 +2962,18 @@
         <v>1927</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>43920</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>280</v>
@@ -2938,26 +2982,26 @@
         <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1">
         <v>43915</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>1300</v>
@@ -2966,18 +3010,18 @@
         <v>1300</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1">
         <v>43925</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>1000</v>
@@ -2989,24 +3033,24 @@
         <v>1300</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1">
         <v>43919</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>248</v>
@@ -3015,18 +3059,18 @@
         <v>248</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1">
         <v>43915</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>1040</v>
@@ -3035,24 +3079,24 @@
         <v>1040</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1">
         <v>43918</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1400</v>
@@ -3061,21 +3105,21 @@
         <v>1400</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" s="1">
         <v>43926</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1700</v>
@@ -3087,21 +3131,21 @@
         <v>2100</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1">
         <v>43920</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>1384</v>
@@ -3110,38 +3154,38 @@
         <v>1384</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1">
         <v>43925</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>400</v>
       </c>
       <c r="F25" s="1">
         <v>43922</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>1832</v>
@@ -3150,29 +3194,29 @@
         <v>1832</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1">
         <v>43927</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="B27">
+        <v>327</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28">
         <v>600</v>
@@ -3181,18 +3225,18 @@
         <v>600</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F28" s="1">
         <v>43919</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>838</v>
@@ -3201,18 +3245,18 @@
         <v>838</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F29" s="1">
         <v>43927</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>1000</v>
@@ -3221,18 +3265,18 @@
         <v>1000</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F30" s="1">
         <v>43928</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <v>1227</v>
@@ -3244,21 +3288,21 @@
         <v>1527</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1">
         <v>43924</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32">
         <v>630</v>
@@ -3267,18 +3311,18 @@
         <v>630</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F32" s="1">
         <v>43922</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33">
         <v>2200</v>
@@ -3290,32 +3334,32 @@
         <v>3300</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F33" s="1">
         <v>43923</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
+        <v>88</v>
+      </c>
+      <c r="B34">
+        <v>2127</v>
       </c>
       <c r="I34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35">
         <v>408</v>
@@ -3324,18 +3368,18 @@
         <v>408</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1">
         <v>43919</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B36">
         <v>2729</v>
@@ -3344,18 +3388,18 @@
         <v>2729</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" s="1">
         <v>43910</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37">
         <v>800</v>
@@ -3364,18 +3408,18 @@
         <v>800</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F37" s="1">
         <v>43917</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38">
         <v>800</v>
@@ -3387,35 +3431,35 @@
         <v>660</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F38" s="1">
         <v>43924</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39">
         <v>2000</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F39" s="1">
         <v>43914</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>388</v>
@@ -3427,18 +3471,18 @@
         <v>310.39999999999998</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F40" s="1">
         <v>43927</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B41">
         <v>1265</v>
@@ -3447,21 +3491,21 @@
         <v>1265</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F41" s="1">
         <v>43917</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42">
         <v>525</v>
@@ -3470,18 +3514,18 @@
         <v>525</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F42" s="1">
         <v>43927</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43">
         <v>950</v>
@@ -3490,18 +3534,18 @@
         <v>950</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F43" s="1">
         <v>43924</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44">
         <v>8741</v>
@@ -3510,18 +3554,18 @@
         <v>8741</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F44" s="1">
         <v>43924</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45">
         <v>720</v>
@@ -3530,21 +3574,21 @@
         <v>720</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F45" s="1">
         <v>43925</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B46">
         <v>208</v>
@@ -3556,18 +3600,18 @@
         <v>660</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F46" s="1">
         <v>43927</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B47">
         <v>2533</v>
@@ -3579,18 +3623,18 @@
         <v>1849.09</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F47" s="1">
         <v>43928</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B48">
         <v>1200</v>
@@ -3602,69 +3646,73 @@
         <v>1950</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F48" s="1">
         <v>43926</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49">
         <v>700</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F49" s="1">
         <v>43923</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50">
         <v>620</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F50" s="1">
         <v>43913</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" t="s">
-        <v>31</v>
+        <v>125</v>
+      </c>
+      <c r="B51">
+        <v>180</v>
       </c>
       <c r="I51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="B52">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>